--- a/读论文.xlsx
+++ b/读论文.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION\Desktop\科研\读论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1E7E5B-EAC8-4C77-98D6-B973DA93CB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948543C-9D49-472C-90BA-9E8763AF7473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>期刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,80 @@
   </si>
   <si>
     <t>介绍了大语言模型的发展状况以及常用技巧，包括预训练、微调以及对应的价值调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transportation Research Part C</t>
+  </si>
+  <si>
+    <t>Analyzing year-to-year changes in public transport passenger
+behaviour using smart card data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anne-Sarah Briand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart card,cluster,temperal features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用刷卡数据的时间对客流的刷卡时间分布进行高斯混合模型预测，接着进行聚类，利用了两层聚类方法，将客流利用高斯混合模型进行簇之间的概率划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路比较清晰，但是划分过程相对比较简单，没有考虑客流本身出行距离、换乘与否等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analyzing Transit User Behavior with
+51Weeks of Smart Card Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elodie Deschaintres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart card,cluster,frequency per week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要利用了刷卡数据的两类信息：每周各天出行次数以及对应的乘客使用信息，并对此进行聚类，将乘客各周划分到12个出行类型里，接着对各类不同类型的持卡者进行聚类分析（利用上一个聚类得到的向量序列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路相对比较容易，但是现状没有特别多的数据，可能结果不会很充足，但是思路有参考价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IATSS Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User retention tendency of bus routes based on user behavior transition
+in an area with low mode share of public transport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pai-Hsien Hung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留存率，客流分类，需求供给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先是对客流进行了简单的分类，没有运用什么聚类方法，然后对各个类进行回归分析（方法不一定要用这个），因变量为留存的概率，自变量为各类供需的因素，也对线路因素进行了探索，这是之后需要进行考虑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路也比较简单，但是有参考价值，可以进行进一步的探索和线路级别的考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1395,6 +1469,84 @@
         <v>76</v>
       </c>
     </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>202506</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>202507</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>202508</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
